--- a/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.1_KS_Holdout_seed_999/metrics/Trial_102__Reeval_Taguchi_Modell_1.1.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.1_KS_Holdout_seed_999/metrics/Trial_102__Reeval_Taguchi_Modell_1.1.xlsx
@@ -5450,7 +5450,7 @@
                   <c:v>0.7968296408653259</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>48.05091094970703</c:v>
+                  <c:v>48.05090713500977</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.7968296408653259</c:v>
@@ -5462,7 +5462,7 @@
                   <c:v>39.28145599365234</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>38.87009811401367</c:v>
+                  <c:v>38.87009429931641</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0.7968296408653259</c:v>
@@ -5483,7 +5483,7 @@
                   <c:v>0.7968296408653259</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>48.4233512878418</c:v>
+                  <c:v>48.42335510253906</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0.7968296408653259</c:v>
@@ -5498,7 +5498,7 @@
                   <c:v>0.7968296408653259</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>50.61338424682617</c:v>
+                  <c:v>50.6133918762207</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0.7968296408653259</c:v>
@@ -5528,16 +5528,16 @@
                   <c:v>0.7968296408653259</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>22.24559211730957</c:v>
+                  <c:v>22.2455940246582</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>55.51254653930664</c:v>
+                  <c:v>55.51254272460938</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>0.7968296408653259</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>45.14856719970703</c:v>
+                  <c:v>45.14856338500977</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>0.7968296408653259</c:v>
@@ -5561,7 +5561,7 @@
                   <c:v>0.7968296408653259</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>50.9224967956543</c:v>
+                  <c:v>50.92249298095703</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>0.7968296408653259</c:v>
@@ -5582,7 +5582,7 @@
                   <c:v>0.7968296408653259</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>7.36364221572876</c:v>
+                  <c:v>7.363645076751709</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>0.7968296408653259</c:v>
@@ -5639,7 +5639,7 @@
                   <c:v>46.60122680664062</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>47.63540649414062</c:v>
+                  <c:v>47.63541030883789</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>0.7968296408653259</c:v>
@@ -5672,7 +5672,7 @@
                   <c:v>0.7968296408653259</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>9.564521789550781</c:v>
+                  <c:v>9.564517021179199</c:v>
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>0.7968296408653259</c:v>
@@ -6671,7 +6671,7 @@
         <v>50.4351</v>
       </c>
       <c r="F13">
-        <v>48.05091094970703</v>
+        <v>48.05090713500977</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -6751,7 +6751,7 @@
         <v>40.625</v>
       </c>
       <c r="F17">
-        <v>38.87009811401367</v>
+        <v>38.87009429931641</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -6891,7 +6891,7 @@
         <v>46.0768</v>
       </c>
       <c r="F24">
-        <v>48.4233512878418</v>
+        <v>48.42335510253906</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -6991,7 +6991,7 @@
         <v>49.5298</v>
       </c>
       <c r="F29">
-        <v>50.61338424682617</v>
+        <v>50.6133918762207</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7191,7 +7191,7 @@
         <v>45.1545</v>
       </c>
       <c r="F39">
-        <v>22.24559211730957</v>
+        <v>22.2455940246582</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7211,7 +7211,7 @@
         <v>54.5459</v>
       </c>
       <c r="F40">
-        <v>55.51254653930664</v>
+        <v>55.51254272460938</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7251,7 +7251,7 @@
         <v>44.6167</v>
       </c>
       <c r="F42">
-        <v>45.14856719970703</v>
+        <v>45.14856338500977</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7411,7 +7411,7 @@
         <v>50.0511</v>
       </c>
       <c r="F50">
-        <v>50.9224967956543</v>
+        <v>50.92249298095703</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>7.36364221572876</v>
+        <v>7.363645076751709</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>46.3983</v>
       </c>
       <c r="F76">
-        <v>47.63540649414062</v>
+        <v>47.63541030883789</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>9.564521789550781</v>
+        <v>9.564517021179199</v>
       </c>
     </row>
     <row r="88" spans="1:6">
